--- a/Results/Opinion/beda-AMBIENCE.xlsx
+++ b/Results/Opinion/beda-AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>attractive</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
@@ -40,42 +37,21 @@
     <t>casual</t>
   </si>
   <si>
-    <t>charming</t>
-  </si>
-  <si>
     <t>confortable</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>delish</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>interior</t>
   </si>
   <si>
-    <t>italian</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -85,24 +61,12 @@
     <t>live</t>
   </si>
   <si>
-    <t>loud</t>
-  </si>
-  <si>
-    <t>magnificent</t>
-  </si>
-  <si>
     <t>more</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -118,9 +82,6 @@
     <t>simple</t>
   </si>
   <si>
-    <t>sleek</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -139,19 +100,13 @@
     <t>un</t>
   </si>
   <si>
-    <t>upscale</t>
-  </si>
-  <si>
     <t>wooden</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>negative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>baru</t>
@@ -512,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,16 +509,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,16 +526,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -622,16 +577,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,16 +594,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -656,16 +611,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -673,16 +628,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -690,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -707,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -724,16 +679,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -741,16 +696,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -758,16 +713,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -775,16 +730,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -792,16 +747,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -809,16 +764,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -826,16 +781,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -843,16 +798,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -860,16 +815,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -877,16 +832,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -894,16 +849,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -911,16 +866,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -928,16 +883,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -945,254 +900,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>65</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/beda-AMBIENCE.xlsx
+++ b/Results/Opinion/beda-AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>attractive</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
@@ -37,12 +40,27 @@
     <t>casual</t>
   </si>
   <si>
+    <t>charming</t>
+  </si>
+  <si>
     <t>confortable</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>delish</t>
   </si>
   <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -52,6 +70,9 @@
     <t>interior</t>
   </si>
   <si>
+    <t>italian</t>
+  </si>
+  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -61,13 +82,19 @@
     <t>live</t>
   </si>
   <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>magnificent</t>
+  </si>
+  <si>
     <t>more</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>other</t>
+    <t>noisy</t>
   </si>
   <si>
     <t>outdoor</t>
@@ -79,12 +106,21 @@
     <t>perfecttheyre</t>
   </si>
   <si>
+    <t>personal</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
+    <t>sleek</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>soggy</t>
+  </si>
+  <si>
     <t>sohovillageupper</t>
   </si>
   <si>
@@ -100,13 +136,19 @@
     <t>un</t>
   </si>
   <si>
+    <t>upscale</t>
+  </si>
+  <si>
     <t>wooden</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>negative</t>
+    <t>-</t>
   </si>
   <si>
     <t>baru</t>
@@ -467,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,16 +568,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,16 +585,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,16 +602,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,16 +619,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,16 +636,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,16 +653,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,16 +670,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,16 +687,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,16 +704,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,16 +721,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,16 +738,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,16 +755,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,16 +772,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,16 +789,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,16 +806,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,16 +823,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -798,16 +840,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,16 +857,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,16 +874,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,16 +891,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,16 +908,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,16 +925,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,16 +942,237 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
